--- a/skill_translation.xlsx
+++ b/skill_translation.xlsx
@@ -5,31 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sharif\Research_Projects\tshaped-Mining\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sharif\Research_Projects\tshaped-expert-finding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="Java-ASTM-1" sheetId="1" r:id="rId1"/>
     <sheet name="Java-ASTM-2" sheetId="2" r:id="rId2"/>
-    <sheet name="C#-ASTM-1" sheetId="3" r:id="rId3"/>
-    <sheet name="C#-ASTM-2" sheetId="4" r:id="rId4"/>
-    <sheet name="Android-ASTM-1" sheetId="5" r:id="rId5"/>
-    <sheet name="Android-ASTM-2" sheetId="6" r:id="rId6"/>
+    <sheet name="Java-SAST" sheetId="9" r:id="rId3"/>
+    <sheet name="C#-ASTM-1" sheetId="3" r:id="rId4"/>
+    <sheet name="C#-ASTM-2" sheetId="4" r:id="rId5"/>
+    <sheet name="C#-SAST" sheetId="8" r:id="rId6"/>
+    <sheet name="Android-ASTM-1" sheetId="5" r:id="rId7"/>
+    <sheet name="Android-ASTM-2" sheetId="6" r:id="rId8"/>
+    <sheet name="Android-SAST" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgzGbU7OGQqesVQSdvyFonqjA7oEQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mgzGbU7OGQqesVQSdvyFonqjA7oEQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="1170">
   <si>
     <t>skill</t>
   </si>
@@ -3104,17 +3107,459 @@
   </si>
   <si>
     <t>tomcat's</t>
+  </si>
+  <si>
+    <t>achartengine</t>
+  </si>
+  <si>
+    <t>kill-server</t>
+  </si>
+  <si>
+    <t>alertdialog</t>
+  </si>
+  <si>
+    <t>andengine</t>
+  </si>
+  <si>
+    <t>android-actionbar</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>android-activity</t>
+  </si>
+  <si>
+    <t>android-alertdialog</t>
+  </si>
+  <si>
+    <t>android-asynctask</t>
+  </si>
+  <si>
+    <t>onpostexecute</t>
+  </si>
+  <si>
+    <t>android-canvas</t>
+  </si>
+  <si>
+    <t>android-edittext</t>
+  </si>
+  <si>
+    <t>textwatcher</t>
+  </si>
+  <si>
+    <t>android-emulator</t>
+  </si>
+  <si>
+    <t>android-fragmentactivity</t>
+  </si>
+  <si>
+    <t>android-fragments</t>
+  </si>
+  <si>
+    <t>android-gcm</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>android-gradle</t>
+  </si>
+  <si>
+    <t>android-imageview</t>
+  </si>
+  <si>
+    <t>android-intent</t>
+  </si>
+  <si>
+    <t>android-layout</t>
+  </si>
+  <si>
+    <t>android-linearlayout</t>
+  </si>
+  <si>
+    <t>android-ndk</t>
+  </si>
+  <si>
+    <t>android-notifications</t>
+  </si>
+  <si>
+    <t>android-sqlite</t>
+  </si>
+  <si>
+    <t>android-studio</t>
+  </si>
+  <si>
+    <t>android-support-library</t>
+  </si>
+  <si>
+    <t>android-textview</t>
+  </si>
+  <si>
+    <t>android-ui</t>
+  </si>
+  <si>
+    <t>android-view</t>
+  </si>
+  <si>
+    <t>android-viewpager</t>
+  </si>
+  <si>
+    <t>android-xml</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>gcc</t>
+  </si>
+  <si>
+    <t>c#</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>cordova</t>
+  </si>
+  <si>
+    <t>debugging</t>
+  </si>
+  <si>
+    <t>oncomplete(bundle</t>
+  </si>
+  <si>
+    <t>facebook-graph-api</t>
+  </si>
+  <si>
+    <t>geolocation</t>
+  </si>
+  <si>
+    <t>google-maps</t>
+  </si>
+  <si>
+    <t>html5</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>http-post</t>
+  </si>
+  <si>
+    <t>multipartentity</t>
+  </si>
+  <si>
+    <t>intellij-idea</t>
+  </si>
+  <si>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>jquery-mobile</t>
+  </si>
+  <si>
+    <t>libgdx</t>
+  </si>
+  <si>
+    <t>geocoder</t>
+  </si>
+  <si>
+    <t>multithreading</t>
+  </si>
+  <si>
+    <t>navigation-drawer</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>opengl-es</t>
+  </si>
+  <si>
+    <t>opengl</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>robolectric</t>
+  </si>
+  <si>
+    <t>unity3d</t>
+  </si>
+  <si>
+    <t>drivers</t>
+  </si>
+  <si>
+    <t>web-services</t>
+  </si>
+  <si>
+    <t>apache-poi</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>awt</t>
+  </si>
+  <si>
+    <t>concurrency</t>
+  </si>
+  <si>
+    <t>cxf</t>
+  </si>
+  <si>
+    <t>interceptor</t>
+  </si>
+  <si>
+    <t>design-patterns</t>
+  </si>
+  <si>
+    <t>generics</t>
+  </si>
+  <si>
+    <t>google-app-engine</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>inheritance</t>
+  </si>
+  <si>
+    <t>jboss</t>
+  </si>
+  <si>
+    <t>java.lang.unsatisfiedlinkerror</t>
+  </si>
+  <si>
+    <t>log4j</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>networking</t>
+  </si>
+  <si>
+    <t>oop</t>
+  </si>
+  <si>
+    <t>rmi</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>selenium-webdriver</t>
+  </si>
+  <si>
+    <t>serialization</t>
+  </si>
+  <si>
+    <t>sockets</t>
+  </si>
+  <si>
+    <t>ssl</t>
+  </si>
+  <si>
+    <t>sslsocket</t>
+  </si>
+  <si>
+    <t>struts2</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>unit-testing</t>
+  </si>
+  <si>
+    <t>user-interface</t>
+  </si>
+  <si>
+    <t>web-applications</t>
+  </si>
+  <si>
+    <t>xml-parsing</t>
+  </si>
+  <si>
+    <t>documentbuilderfactory</t>
+  </si>
+  <si>
+    <t>active-directory</t>
+  </si>
+  <si>
+    <t>asp.net-mvc</t>
+  </si>
+  <si>
+    <t>asp.net-mvc-2</t>
+  </si>
+  <si>
+    <t>asp.net-mvc-3</t>
+  </si>
+  <si>
+    <t>asp.net-mvc-4</t>
+  </si>
+  <si>
+    <t>asp.net-mvc-5</t>
+  </si>
+  <si>
+    <t>async-await</t>
+  </si>
+  <si>
+    <t>task.run</t>
+  </si>
+  <si>
+    <t>credentials</t>
+  </si>
+  <si>
+    <t>datacontext</t>
+  </si>
+  <si>
+    <t>data-binding</t>
+  </si>
+  <si>
+    <t>datagridviewcelleventargs</t>
+  </si>
+  <si>
+    <t>ef-code-first</t>
+  </si>
+  <si>
+    <t>onmodelcreating(dbmodelbuilder</t>
+  </si>
+  <si>
+    <t>entity-framework</t>
+  </si>
+  <si>
+    <t>entity-framework-4</t>
+  </si>
+  <si>
+    <t>objectcontext</t>
+  </si>
+  <si>
+    <t>entity-framework-5</t>
+  </si>
+  <si>
+    <t>migrations</t>
+  </si>
+  <si>
+    <t>fluent-nhibernate</t>
+  </si>
+  <si>
+    <t>jsonserializer</t>
+  </si>
+  <si>
+    <t>linq-to-entities</t>
+  </si>
+  <si>
+    <t>linq</t>
+  </si>
+  <si>
+    <t>microsoft-metro</t>
+  </si>
+  <si>
+    <t>storagefile</t>
+  </si>
+  <si>
+    <t>model-view-controller</t>
+  </si>
+  <si>
+    <t>ms-word</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>isession</t>
+  </si>
+  <si>
+    <t>reflection</t>
+  </si>
+  <si>
+    <t>itext</t>
+  </si>
+  <si>
+    <t>xmlserializer</t>
+  </si>
+  <si>
+    <t>sharepoint</t>
+  </si>
+  <si>
+    <t>task-parallel-library</t>
+  </si>
+  <si>
+    <t>user-controls</t>
+  </si>
+  <si>
+    <t>visual-studio</t>
+  </si>
+  <si>
+    <t>visual-studio-2008</t>
+  </si>
+  <si>
+    <t>visual-studio-2010</t>
+  </si>
+  <si>
+    <t>visual-studio-2012</t>
+  </si>
+  <si>
+    <t>visual-studio-2013</t>
+  </si>
+  <si>
+    <t>winapi</t>
+  </si>
+  <si>
+    <t>windows-8</t>
+  </si>
+  <si>
+    <t>windows-phone</t>
+  </si>
+  <si>
+    <t>windows-phone-7</t>
+  </si>
+  <si>
+    <t>windows-phone-8</t>
+  </si>
+  <si>
+    <t>windows-phone-8.1</t>
+  </si>
+  <si>
+    <t>windows-runtime</t>
+  </si>
+  <si>
+    <t>windows-store-apps</t>
+  </si>
+  <si>
+    <t>winforms</t>
+  </si>
+  <si>
+    <t>winrt-xaml</t>
+  </si>
+  <si>
+    <t>wpf-controls</t>
+  </si>
+  <si>
+    <t>xna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3167,6 +3612,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3195,20 +3647,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6557,7 +7012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K993"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10814,6 +11271,1659 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K897"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13971,11 +16081,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S895"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18856,7 +20968,1922 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K897"/>
   <sheetViews>
@@ -21977,7 +26004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L897"/>
   <sheetViews>
@@ -25526,4 +29553,2774 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F894"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="7.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+    </row>
+    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+    </row>
+    <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+    </row>
+    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+    </row>
+    <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+    </row>
+    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>